--- a/Data-20230825T133440Z-001/Data/Company X - Order Report.xlsx
+++ b/Data-20230825T133440Z-001/Data/Company X - Order Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Cointab\Human Resource\Hiring\Data Analyst\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubh\OneDrive\Desktop\Desktop\Programming\Training\task1\code\Data-20230825T133440Z-001\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5273871-5C16-45C6-B383-1186FB58CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,19 +432,19 @@
     <t>2001806210</t>
   </si>
   <si>
-    <t>ExternOrderNo</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
     <t>Order Qty</t>
+  </si>
+  <si>
+    <t>Order ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,9 +474,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,87 +755,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
         <v>135</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>8904223818706</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>8904223819093</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>8904223819109</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>8904223818430</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>8904223819277</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -846,18 +844,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>8904223818638</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -868,51 +866,51 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>8904223819024</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>8904223819291</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>8904223818638</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>8904223818669</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -923,370 +921,370 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>8904223819291</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
         <v>8904223819031</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17">
         <v>8904223819024</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
         <v>8904223819468</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
         <v>8904223819291</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20">
         <v>8904223819130</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21">
         <v>8904223818706</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22">
         <v>8904223818591</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23">
         <v>8904223818850</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24">
         <v>8904223818430</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25">
         <v>8904223819130</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>8904223819468</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>8904223818430</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>8904223818980</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>8904223819031</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>8904223819024</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31">
         <v>8904223818614</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32">
         <v>8904223819024</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33">
         <v>8904223819321</v>
       </c>
       <c r="C33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34">
         <v>8904223819338</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35">
         <v>8904223818942</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36">
         <v>8904223818683</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37">
         <v>8904223819239</v>
       </c>
       <c r="C37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38">
         <v>8904223819246</v>
       </c>
       <c r="C38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39">
         <v>8904223819253</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40">
         <v>8904223818669</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41">
         <v>8904223819147</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42">
         <v>8904223818850</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43">
         <v>8904223815859</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44">
         <v>8904223817501</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45">
         <v>8904223817273</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46">
         <v>8904223818942</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>8904223818706</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1297,403 +1295,403 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>8904223819147</v>
       </c>
       <c r="C49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>23</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>8904223818935</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51">
         <v>8904223818683</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52">
         <v>8904223818478</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53">
         <v>8904223819284</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54">
         <v>8904223816214</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55">
         <v>8904223818874</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56">
         <v>8904223819512</v>
       </c>
       <c r="C56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57">
         <v>8904223818881</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58">
         <v>8904223819291</v>
       </c>
       <c r="C58" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59">
         <v>8904223819031</v>
       </c>
       <c r="C59" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60">
         <v>8904223819024</v>
       </c>
       <c r="C60" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>25</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61">
         <v>8904223818553</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>26</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62">
         <v>8904223818706</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63">
         <v>8904223818942</v>
       </c>
       <c r="C63" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>26</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64">
         <v>8904223818850</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>27</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65">
         <v>8904223816214</v>
       </c>
       <c r="C65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66">
         <v>8904223818874</v>
       </c>
       <c r="C66" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67">
         <v>8904223818935</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68">
         <v>8904223816665</v>
       </c>
       <c r="C68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69">
         <v>8904223819277</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>29</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70">
         <v>8904223816214</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71">
         <v>8904223818874</v>
       </c>
       <c r="C71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72">
         <v>8904223818706</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73">
         <v>8904223816214</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74">
         <v>8904223818874</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>31</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75">
         <v>8904223818706</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>31</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76">
         <v>8904223818942</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>31</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77">
         <v>8904223818850</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78">
         <v>8904223818706</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79">
         <v>8904223818942</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80">
         <v>8904223818850</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81">
         <v>8904223818478</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>33</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82">
         <v>8904223819130</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>33</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83">
         <v>8904223819277</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>33</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84">
         <v>8904223819284</v>
       </c>
       <c r="C84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>33</v>
       </c>
@@ -1704,1030 +1702,1030 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86">
         <v>8904223819291</v>
       </c>
       <c r="C86" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87">
         <v>8904223819031</v>
       </c>
       <c r="C87" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88">
         <v>8904223819024</v>
       </c>
       <c r="C88" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89">
         <v>8904223818980</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>35</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90">
         <v>8904223819031</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91">
         <v>8904223819031</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92">
         <v>8904223819017</v>
       </c>
       <c r="C92" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93">
         <v>8904223818706</v>
       </c>
       <c r="C93" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94">
         <v>8904223818942</v>
       </c>
       <c r="C94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>37</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95">
         <v>8904223818850</v>
       </c>
       <c r="C95" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>38</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96">
         <v>8904223818706</v>
       </c>
       <c r="C96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>38</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97">
         <v>8904223818942</v>
       </c>
       <c r="C97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>38</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98">
         <v>8904223818850</v>
       </c>
       <c r="C98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99">
         <v>8904223816214</v>
       </c>
       <c r="C99" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100">
         <v>8904223818669</v>
       </c>
       <c r="C100" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101">
         <v>8904223818683</v>
       </c>
       <c r="C101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>40</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102">
         <v>8904223818706</v>
       </c>
       <c r="C102" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>40</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103">
         <v>8904223818669</v>
       </c>
       <c r="C103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>40</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>8904223819499</v>
       </c>
       <c r="C104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>40</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105">
         <v>8904223819031</v>
       </c>
       <c r="C105" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>41</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106">
         <v>8904223818706</v>
       </c>
       <c r="C106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>41</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107">
         <v>8904223818850</v>
       </c>
       <c r="C107" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>41</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108">
         <v>8904223819468</v>
       </c>
       <c r="C108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>42</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B109">
         <v>8904223815859</v>
       </c>
       <c r="C109" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>42</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110">
         <v>8904223818751</v>
       </c>
       <c r="C110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>42</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111">
         <v>8904223815873</v>
       </c>
       <c r="C111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>42</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112">
         <v>8904223815859</v>
       </c>
       <c r="C112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>43</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113">
         <v>8904223819352</v>
       </c>
       <c r="C113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>43</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114">
         <v>8904223819543</v>
       </c>
       <c r="C114" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>43</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115">
         <v>8904223819147</v>
       </c>
       <c r="C115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>43</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116">
         <v>8904223819468</v>
       </c>
       <c r="C116" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>44</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B117">
         <v>8904223816214</v>
       </c>
       <c r="C117" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>44</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118">
         <v>8904223819499</v>
       </c>
       <c r="C118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B119">
         <v>8904223819505</v>
       </c>
       <c r="C119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>44</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B120">
         <v>8904223819512</v>
       </c>
       <c r="C120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B121">
         <v>8904223819468</v>
       </c>
       <c r="C121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B122">
         <v>8904223819345</v>
       </c>
       <c r="C122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>45</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B123">
         <v>8904223818874</v>
       </c>
       <c r="C123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>46</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B124">
         <v>8904223816214</v>
       </c>
       <c r="C124" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B125">
         <v>8904223818874</v>
       </c>
       <c r="C125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>46</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B126">
         <v>8904223818881</v>
       </c>
       <c r="C126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127">
         <v>8904223819291</v>
       </c>
       <c r="C127" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>46</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128">
         <v>8904223819031</v>
       </c>
       <c r="C128" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>46</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129">
         <v>8904223819024</v>
       </c>
       <c r="C129" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>47</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130">
         <v>8904223818706</v>
       </c>
       <c r="C130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>47</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131">
         <v>8904223818850</v>
       </c>
       <c r="C131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>47</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132">
         <v>8904223819468</v>
       </c>
       <c r="C132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>48</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133">
         <v>8904223818706</v>
       </c>
       <c r="C133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>48</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134">
         <v>8904223818942</v>
       </c>
       <c r="C134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>48</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135">
         <v>8904223818850</v>
       </c>
       <c r="C135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>49</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136">
         <v>8904223818706</v>
       </c>
       <c r="C136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>49</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137">
         <v>8904223818683</v>
       </c>
       <c r="C137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>49</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138">
         <v>8904223818850</v>
       </c>
       <c r="C138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>50</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139">
         <v>8904223818706</v>
       </c>
       <c r="C139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>50</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140">
         <v>8904223818850</v>
       </c>
       <c r="C140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>50</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141">
         <v>8904223819468</v>
       </c>
       <c r="C141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>51</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142">
         <v>8904223819468</v>
       </c>
       <c r="C142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>51</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143">
         <v>8904223818454</v>
       </c>
       <c r="C143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>51</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144">
         <v>8904223818669</v>
       </c>
       <c r="C144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>51</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145">
         <v>8904223818638</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>52</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146">
         <v>8904223818706</v>
       </c>
       <c r="C146" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>52</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147">
         <v>8904223818942</v>
       </c>
       <c r="C147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148">
         <v>8904223818850</v>
       </c>
       <c r="C148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149">
         <v>8904223818706</v>
       </c>
       <c r="C149" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>53</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150">
         <v>8904223818942</v>
       </c>
       <c r="C150" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>53</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151">
         <v>8904223818850</v>
       </c>
       <c r="C151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>54</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152">
         <v>8904223818850</v>
       </c>
       <c r="C152" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>54</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153">
         <v>8904223818683</v>
       </c>
       <c r="C153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>54</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154">
         <v>8904223819468</v>
       </c>
       <c r="C154" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>55</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155">
         <v>8904223818850</v>
       </c>
       <c r="C155" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>55</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156">
         <v>8904223818683</v>
       </c>
       <c r="C156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>56</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157">
         <v>8904223819499</v>
       </c>
       <c r="C157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>56</v>
       </c>
-      <c r="B158" s="1">
+      <c r="B158">
         <v>8904223819505</v>
       </c>
       <c r="C158" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>56</v>
       </c>
-      <c r="B159" s="1">
+      <c r="B159">
         <v>8904223819512</v>
       </c>
       <c r="C159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>57</v>
       </c>
-      <c r="B160" s="1">
+      <c r="B160">
         <v>8904223819277</v>
       </c>
       <c r="C160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>57</v>
       </c>
-      <c r="B161" s="1">
+      <c r="B161">
         <v>8904223818478</v>
       </c>
       <c r="C161" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>57</v>
       </c>
-      <c r="B162" s="1">
+      <c r="B162">
         <v>8904223819284</v>
       </c>
       <c r="C162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>57</v>
       </c>
-      <c r="B163" s="1">
+      <c r="B163">
         <v>8904223819130</v>
       </c>
       <c r="C163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>57</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B164">
         <v>8904223819031</v>
       </c>
       <c r="C164" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>57</v>
       </c>
-      <c r="B165" s="1">
+      <c r="B165">
         <v>8904223819024</v>
       </c>
       <c r="C165" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>57</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B166">
         <v>8904223816214</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>57</v>
       </c>
-      <c r="B167" s="1">
+      <c r="B167">
         <v>8904223818874</v>
       </c>
       <c r="C167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>57</v>
       </c>
-      <c r="B168" s="1">
+      <c r="B168">
         <v>8904223818881</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>57</v>
       </c>
-      <c r="B169" s="1">
+      <c r="B169">
         <v>8904223818898</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>57</v>
       </c>
-      <c r="B170" s="1">
+      <c r="B170">
         <v>8904223818706</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="1">
+      <c r="B171">
         <v>8904223818942</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>57</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B172">
         <v>8904223818850</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>57</v>
       </c>
-      <c r="B173" s="1">
+      <c r="B173">
         <v>8904223818454</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>58</v>
       </c>
-      <c r="B174" s="1">
+      <c r="B174">
         <v>8904223819284</v>
       </c>
       <c r="C174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>58</v>
       </c>
-      <c r="B175" s="1">
+      <c r="B175">
         <v>8904223819352</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>58</v>
       </c>
-      <c r="B176" s="1">
+      <c r="B176">
         <v>8904223818935</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>58</v>
       </c>
-      <c r="B177" s="1">
+      <c r="B177">
         <v>8904223816214</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>58</v>
       </c>
-      <c r="B178" s="1">
+      <c r="B178">
         <v>8904223818454</v>
       </c>
       <c r="C178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>58</v>
       </c>
@@ -2738,381 +2736,381 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>58</v>
       </c>
-      <c r="B180" s="1">
+      <c r="B180">
         <v>8904223819116</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>60</v>
       </c>
-      <c r="B181" s="1">
+      <c r="B181">
         <v>8904223818706</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>60</v>
       </c>
-      <c r="B182" s="1">
+      <c r="B182">
         <v>8904223819024</v>
       </c>
       <c r="C182" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>60</v>
       </c>
-      <c r="B183" s="1">
+      <c r="B183">
         <v>8904223818683</v>
       </c>
       <c r="C183" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>60</v>
       </c>
-      <c r="B184" s="1">
+      <c r="B184">
         <v>8904223818850</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>61</v>
       </c>
-      <c r="B185" s="1">
+      <c r="B185">
         <v>8904223818706</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>61</v>
       </c>
-      <c r="B186" s="1">
+      <c r="B186">
         <v>8904223818850</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>61</v>
       </c>
-      <c r="B187" s="1">
+      <c r="B187">
         <v>8904223819468</v>
       </c>
       <c r="C187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>62</v>
       </c>
-      <c r="B188" s="1">
+      <c r="B188">
         <v>8904223818706</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>62</v>
       </c>
-      <c r="B189" s="1">
+      <c r="B189">
         <v>8904223818942</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="1">
+      <c r="B190">
         <v>8904223818850</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>63</v>
       </c>
-      <c r="B191" s="1">
+      <c r="B191">
         <v>8904223818706</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>63</v>
       </c>
-      <c r="B192" s="1">
+      <c r="B192">
         <v>8904223818942</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>63</v>
       </c>
-      <c r="B193" s="1">
+      <c r="B193">
         <v>8904223818850</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>64</v>
       </c>
-      <c r="B194" s="1">
+      <c r="B194">
         <v>8904223818706</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>64</v>
       </c>
-      <c r="B195" s="1">
+      <c r="B195">
         <v>8904223818942</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>64</v>
       </c>
-      <c r="B196" s="1">
+      <c r="B196">
         <v>8904223818850</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>65</v>
       </c>
-      <c r="B197" s="1">
+      <c r="B197">
         <v>8904223818706</v>
       </c>
       <c r="C197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>65</v>
       </c>
-      <c r="B198" s="1">
+      <c r="B198">
         <v>8904223818942</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>65</v>
       </c>
-      <c r="B199" s="1">
+      <c r="B199">
         <v>8904223818850</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>66</v>
       </c>
-      <c r="B200" s="1">
+      <c r="B200">
         <v>8904223819338</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>67</v>
       </c>
-      <c r="B201" s="1">
+      <c r="B201">
         <v>8904223817273</v>
       </c>
       <c r="C201" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>67</v>
       </c>
-      <c r="B202" s="1">
+      <c r="B202">
         <v>8904223815866</v>
       </c>
       <c r="C202" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>67</v>
       </c>
-      <c r="B203" s="1">
+      <c r="B203">
         <v>8904223815859</v>
       </c>
       <c r="C203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>67</v>
       </c>
-      <c r="B204" s="1">
+      <c r="B204">
         <v>8904223815682</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>68</v>
       </c>
-      <c r="B205" s="1">
+      <c r="B205">
         <v>8904223816214</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>68</v>
       </c>
-      <c r="B206" s="1">
+      <c r="B206">
         <v>8904223818874</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>69</v>
       </c>
-      <c r="B207" s="1">
+      <c r="B207">
         <v>8904223818706</v>
       </c>
       <c r="C207" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>69</v>
       </c>
-      <c r="B208" s="1">
+      <c r="B208">
         <v>8904223818942</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>69</v>
       </c>
-      <c r="B209" s="1">
+      <c r="B209">
         <v>8904223818850</v>
       </c>
       <c r="C209" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>70</v>
       </c>
-      <c r="B210" s="1">
+      <c r="B210">
         <v>8904223818614</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>70</v>
       </c>
-      <c r="B211" s="1">
+      <c r="B211">
         <v>8904223815866</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>70</v>
       </c>
-      <c r="B212" s="1">
+      <c r="B212">
         <v>8904223815859</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>70</v>
       </c>
-      <c r="B213" s="1">
+      <c r="B213">
         <v>8904223817334</v>
       </c>
       <c r="C213" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>70</v>
       </c>
@@ -3123,2057 +3121,2057 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>70</v>
       </c>
-      <c r="B215" s="1">
+      <c r="B215">
         <v>8904223819369</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>72</v>
       </c>
-      <c r="B216" s="1">
+      <c r="B216">
         <v>8904223818706</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>72</v>
       </c>
-      <c r="B217" s="1">
+      <c r="B217">
         <v>8904223818942</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>72</v>
       </c>
-      <c r="B218" s="1">
+      <c r="B218">
         <v>8904223818850</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>73</v>
       </c>
-      <c r="B219" s="1">
+      <c r="B219">
         <v>8904223819468</v>
       </c>
       <c r="C219" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>73</v>
       </c>
-      <c r="B220" s="1">
+      <c r="B220">
         <v>8904223818706</v>
       </c>
       <c r="C220" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>74</v>
       </c>
-      <c r="B221" s="1">
+      <c r="B221">
         <v>8904223818706</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>74</v>
       </c>
-      <c r="B222" s="1">
+      <c r="B222">
         <v>8904223818850</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>74</v>
       </c>
-      <c r="B223" s="1">
+      <c r="B223">
         <v>8904223819468</v>
       </c>
       <c r="C223" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>75</v>
       </c>
-      <c r="B224" s="1">
+      <c r="B224">
         <v>8904223818706</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>75</v>
       </c>
-      <c r="B225" s="1">
+      <c r="B225">
         <v>8904223818942</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>75</v>
       </c>
-      <c r="B226" s="1">
+      <c r="B226">
         <v>8904223818850</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>76</v>
       </c>
-      <c r="B227" s="1">
+      <c r="B227">
         <v>8904223819161</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>76</v>
       </c>
-      <c r="B228" s="1">
+      <c r="B228">
         <v>8904223819260</v>
       </c>
       <c r="C228" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>77</v>
       </c>
-      <c r="B229" s="1">
+      <c r="B229">
         <v>8904223818683</v>
       </c>
       <c r="C229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>77</v>
       </c>
-      <c r="B230" s="1">
+      <c r="B230">
         <v>8904223819468</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>77</v>
       </c>
-      <c r="B231" s="1">
+      <c r="B231">
         <v>8904223818850</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>78</v>
       </c>
-      <c r="B232" s="1">
+      <c r="B232">
         <v>8904223818706</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>78</v>
       </c>
-      <c r="B233" s="1">
+      <c r="B233">
         <v>8904223818850</v>
       </c>
       <c r="C233" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>78</v>
       </c>
-      <c r="B234" s="1">
+      <c r="B234">
         <v>8904223819468</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>79</v>
       </c>
-      <c r="B235" s="1">
+      <c r="B235">
         <v>8904223815859</v>
       </c>
       <c r="C235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>79</v>
       </c>
-      <c r="B236" s="1">
+      <c r="B236">
         <v>8904223817273</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>79</v>
       </c>
-      <c r="B237" s="1">
+      <c r="B237">
         <v>8904223818751</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>80</v>
       </c>
-      <c r="B238" s="1">
+      <c r="B238">
         <v>8904223819291</v>
       </c>
       <c r="C238" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>80</v>
       </c>
-      <c r="B239" s="1">
+      <c r="B239">
         <v>8904223819031</v>
       </c>
       <c r="C239" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>80</v>
       </c>
-      <c r="B240" s="1">
+      <c r="B240">
         <v>8904223819024</v>
       </c>
       <c r="C240" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>80</v>
       </c>
-      <c r="B241" s="1">
+      <c r="B241">
         <v>8904223819161</v>
       </c>
       <c r="C241" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>80</v>
       </c>
-      <c r="B242" s="1">
+      <c r="B242">
         <v>8904223819260</v>
       </c>
       <c r="C242" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>80</v>
       </c>
-      <c r="B243" s="1">
+      <c r="B243">
         <v>8904223819468</v>
       </c>
       <c r="C243" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>81</v>
       </c>
-      <c r="B244" s="1">
+      <c r="B244">
         <v>8904223818706</v>
       </c>
       <c r="C244" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>81</v>
       </c>
-      <c r="B245" s="1">
+      <c r="B245">
         <v>8904223818942</v>
       </c>
       <c r="C245" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>81</v>
       </c>
-      <c r="B246" s="1">
+      <c r="B246">
         <v>8904223818850</v>
       </c>
       <c r="C246" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>82</v>
       </c>
-      <c r="B247" s="1">
+      <c r="B247">
         <v>8904223819468</v>
       </c>
       <c r="C247" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>82</v>
       </c>
-      <c r="B248" s="1">
+      <c r="B248">
         <v>8904223818669</v>
       </c>
       <c r="C248" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>82</v>
       </c>
-      <c r="B249" s="1">
+      <c r="B249">
         <v>8904223818683</v>
       </c>
       <c r="C249" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>82</v>
       </c>
-      <c r="B250" s="1">
+      <c r="B250">
         <v>8904223818713</v>
       </c>
       <c r="C250" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>83</v>
       </c>
-      <c r="B251" s="1">
+      <c r="B251">
         <v>8904223819321</v>
       </c>
       <c r="C251" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>83</v>
       </c>
-      <c r="B252" s="1">
+      <c r="B252">
         <v>8904223818430</v>
       </c>
       <c r="C252" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>84</v>
       </c>
-      <c r="B253" s="1">
+      <c r="B253">
         <v>8904223818669</v>
       </c>
       <c r="C253" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>84</v>
       </c>
-      <c r="B254" s="1">
+      <c r="B254">
         <v>8904223819147</v>
       </c>
       <c r="C254" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>84</v>
       </c>
-      <c r="B255" s="1">
+      <c r="B255">
         <v>8904223818850</v>
       </c>
       <c r="C255" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>84</v>
       </c>
-      <c r="B256" s="1">
+      <c r="B256">
         <v>8904223819505</v>
       </c>
       <c r="C256" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>85</v>
       </c>
-      <c r="B257" s="1">
+      <c r="B257">
         <v>8904223818706</v>
       </c>
       <c r="C257" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>85</v>
       </c>
-      <c r="B258" s="1">
+      <c r="B258">
         <v>8904223818942</v>
       </c>
       <c r="C258" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>85</v>
       </c>
-      <c r="B259" s="1">
+      <c r="B259">
         <v>8904223818850</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>85</v>
       </c>
-      <c r="B260" s="1">
+      <c r="B260">
         <v>8904223819246</v>
       </c>
       <c r="C260" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>86</v>
       </c>
-      <c r="B261" s="1">
+      <c r="B261">
         <v>8904223818706</v>
       </c>
       <c r="C261" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>86</v>
       </c>
-      <c r="B262" s="1">
+      <c r="B262">
         <v>8904223818850</v>
       </c>
       <c r="C262" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>86</v>
       </c>
-      <c r="B263" s="1">
+      <c r="B263">
         <v>8904223819468</v>
       </c>
       <c r="C263" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>87</v>
       </c>
-      <c r="B264" s="1">
+      <c r="B264">
         <v>8904223819468</v>
       </c>
       <c r="C264" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>88</v>
       </c>
-      <c r="B265" s="1">
+      <c r="B265">
         <v>8904223818706</v>
       </c>
       <c r="C265" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>88</v>
       </c>
-      <c r="B266" s="1">
+      <c r="B266">
         <v>8904223818942</v>
       </c>
       <c r="C266" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>88</v>
       </c>
-      <c r="B267" s="1">
+      <c r="B267">
         <v>8904223818850</v>
       </c>
       <c r="C267" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>89</v>
       </c>
-      <c r="B268" s="1">
+      <c r="B268">
         <v>8904223818706</v>
       </c>
       <c r="C268" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>89</v>
       </c>
-      <c r="B269" s="1">
+      <c r="B269">
         <v>8904223818850</v>
       </c>
       <c r="C269" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>89</v>
       </c>
-      <c r="B270" s="1">
+      <c r="B270">
         <v>8904223819468</v>
       </c>
       <c r="C270" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>90</v>
       </c>
-      <c r="B271" s="1">
+      <c r="B271">
         <v>8904223818706</v>
       </c>
       <c r="C271" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>90</v>
       </c>
-      <c r="B272" s="1">
+      <c r="B272">
         <v>8904223818942</v>
       </c>
       <c r="C272" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>90</v>
       </c>
-      <c r="B273" s="1">
+      <c r="B273">
         <v>8904223818850</v>
       </c>
       <c r="C273" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>91</v>
       </c>
-      <c r="B274" s="1">
+      <c r="B274">
         <v>8904223819147</v>
       </c>
       <c r="C274" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>91</v>
       </c>
-      <c r="B275" s="1">
+      <c r="B275">
         <v>8904223819468</v>
       </c>
       <c r="C275" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>91</v>
       </c>
-      <c r="B276" s="1">
+      <c r="B276">
         <v>8904223819277</v>
       </c>
       <c r="C276" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>92</v>
       </c>
-      <c r="B277" s="1">
+      <c r="B277">
         <v>8904223818850</v>
       </c>
       <c r="C277" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>92</v>
       </c>
-      <c r="B278" s="1">
+      <c r="B278">
         <v>8904223818713</v>
       </c>
       <c r="C278" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>92</v>
       </c>
-      <c r="B279" s="1">
+      <c r="B279">
         <v>8904223819024</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>93</v>
       </c>
-      <c r="B280" s="1">
+      <c r="B280">
         <v>8904223819031</v>
       </c>
       <c r="C280" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>93</v>
       </c>
-      <c r="B281" s="1">
+      <c r="B281">
         <v>8904223819024</v>
       </c>
       <c r="C281" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>93</v>
       </c>
-      <c r="B282" s="1">
+      <c r="B282">
         <v>8904223819291</v>
       </c>
       <c r="C282" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>93</v>
       </c>
-      <c r="B283" s="1">
+      <c r="B283">
         <v>8904223819031</v>
       </c>
       <c r="C283" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>93</v>
       </c>
-      <c r="B284" s="1">
+      <c r="B284">
         <v>8904223819024</v>
       </c>
       <c r="C284" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>95</v>
       </c>
-      <c r="B285" s="1">
+      <c r="B285">
         <v>8904223818706</v>
       </c>
       <c r="C285" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>95</v>
       </c>
-      <c r="B286" s="1">
+      <c r="B286">
         <v>8904223818942</v>
       </c>
       <c r="C286" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>95</v>
       </c>
-      <c r="B287" s="1">
+      <c r="B287">
         <v>8904223818850</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>96</v>
       </c>
-      <c r="B288" s="1">
+      <c r="B288">
         <v>8904223818997</v>
       </c>
       <c r="C288" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>97</v>
       </c>
-      <c r="B289" s="1">
+      <c r="B289">
         <v>8904223818706</v>
       </c>
       <c r="C289" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>97</v>
       </c>
-      <c r="B290" s="1">
+      <c r="B290">
         <v>8904223818942</v>
       </c>
       <c r="C290" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>97</v>
       </c>
-      <c r="B291" s="1">
+      <c r="B291">
         <v>8904223818850</v>
       </c>
       <c r="C291" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>98</v>
       </c>
-      <c r="B292" s="1">
+      <c r="B292">
         <v>8904223818706</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>98</v>
       </c>
-      <c r="B293" s="1">
+      <c r="B293">
         <v>8904223818850</v>
       </c>
       <c r="C293" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>98</v>
       </c>
-      <c r="B294" s="1">
+      <c r="B294">
         <v>8904223819468</v>
       </c>
       <c r="C294" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>99</v>
       </c>
-      <c r="B295" s="1">
+      <c r="B295">
         <v>8904223818706</v>
       </c>
       <c r="C295" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>99</v>
       </c>
-      <c r="B296" s="1">
+      <c r="B296">
         <v>8904223818942</v>
       </c>
       <c r="C296" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>99</v>
       </c>
-      <c r="B297" s="1">
+      <c r="B297">
         <v>8904223818850</v>
       </c>
       <c r="C297" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>100</v>
       </c>
-      <c r="B298" s="1">
+      <c r="B298">
         <v>8904223818706</v>
       </c>
       <c r="C298" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>100</v>
       </c>
-      <c r="B299" s="1">
+      <c r="B299">
         <v>8904223818942</v>
       </c>
       <c r="C299" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>100</v>
       </c>
-      <c r="B300" s="1">
+      <c r="B300">
         <v>8904223818850</v>
       </c>
       <c r="C300" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>101</v>
       </c>
-      <c r="B301" s="1">
+      <c r="B301">
         <v>8904223819239</v>
       </c>
       <c r="C301" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>101</v>
       </c>
-      <c r="B302" s="1">
+      <c r="B302">
         <v>8904223819246</v>
       </c>
       <c r="C302" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>101</v>
       </c>
-      <c r="B303" s="1">
+      <c r="B303">
         <v>8904223819253</v>
       </c>
       <c r="C303" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>101</v>
       </c>
-      <c r="B304" s="1">
+      <c r="B304">
         <v>8904223818713</v>
       </c>
       <c r="C304" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>101</v>
       </c>
-      <c r="B305" s="1">
+      <c r="B305">
         <v>8904223817273</v>
       </c>
       <c r="C305" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>101</v>
       </c>
-      <c r="B306" s="1">
+      <c r="B306">
         <v>8904223818751</v>
       </c>
       <c r="C306" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>102</v>
       </c>
-      <c r="B307" s="1">
+      <c r="B307">
         <v>8904223819291</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>102</v>
       </c>
-      <c r="B308" s="1">
+      <c r="B308">
         <v>8904223819031</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>102</v>
       </c>
-      <c r="B309" s="1">
+      <c r="B309">
         <v>8904223819024</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>102</v>
       </c>
-      <c r="B310" s="1">
+      <c r="B310">
         <v>8904223819017</v>
       </c>
       <c r="C310" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>103</v>
       </c>
-      <c r="B311" s="1">
+      <c r="B311">
         <v>8904223819468</v>
       </c>
       <c r="C311" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>104</v>
       </c>
-      <c r="B312" s="1">
+      <c r="B312">
         <v>8904223818706</v>
       </c>
       <c r="C312" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>104</v>
       </c>
-      <c r="B313" s="1">
+      <c r="B313">
         <v>8904223818942</v>
       </c>
       <c r="C313" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>104</v>
       </c>
-      <c r="B314" s="1">
+      <c r="B314">
         <v>8904223818850</v>
       </c>
       <c r="C314" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>105</v>
       </c>
-      <c r="B315" s="1">
+      <c r="B315">
         <v>8904223818706</v>
       </c>
       <c r="C315" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>105</v>
       </c>
-      <c r="B316" s="1">
+      <c r="B316">
         <v>8904223818942</v>
       </c>
       <c r="C316" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>105</v>
       </c>
-      <c r="B317" s="1">
+      <c r="B317">
         <v>8904223818850</v>
       </c>
       <c r="C317" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>106</v>
       </c>
-      <c r="B318" s="1">
+      <c r="B318">
         <v>8904223819499</v>
       </c>
       <c r="C318" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>106</v>
       </c>
-      <c r="B319" s="1">
+      <c r="B319">
         <v>8904223819499</v>
       </c>
       <c r="C319" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>107</v>
       </c>
-      <c r="B320" s="1">
+      <c r="B320">
         <v>8904223818706</v>
       </c>
       <c r="C320" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>107</v>
       </c>
-      <c r="B321" s="1">
+      <c r="B321">
         <v>8904223818942</v>
       </c>
       <c r="C321" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>107</v>
       </c>
-      <c r="B322" s="1">
+      <c r="B322">
         <v>8904223818850</v>
       </c>
       <c r="C322" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>108</v>
       </c>
-      <c r="B323" s="1">
+      <c r="B323">
         <v>8904223818706</v>
       </c>
       <c r="C323" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>109</v>
       </c>
-      <c r="B324" s="1">
+      <c r="B324">
         <v>8904223818850</v>
       </c>
       <c r="C324" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>109</v>
       </c>
-      <c r="B325" s="1">
+      <c r="B325">
         <v>8904223818683</v>
       </c>
       <c r="C325" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>110</v>
       </c>
-      <c r="B326" s="1">
+      <c r="B326">
         <v>8904223818706</v>
       </c>
       <c r="C326" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>110</v>
       </c>
-      <c r="B327" s="1">
+      <c r="B327">
         <v>8904223818638</v>
       </c>
       <c r="C327" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>110</v>
       </c>
-      <c r="B328" s="1">
+      <c r="B328">
         <v>8904223819505</v>
       </c>
       <c r="C328" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>111</v>
       </c>
-      <c r="B329" s="1">
+      <c r="B329">
         <v>8904223819512</v>
       </c>
       <c r="C329" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>112</v>
       </c>
-      <c r="B330" s="1">
+      <c r="B330">
         <v>8904223818706</v>
       </c>
       <c r="C330" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>112</v>
       </c>
-      <c r="B331" s="1">
+      <c r="B331">
         <v>8904223818942</v>
       </c>
       <c r="C331" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>112</v>
       </c>
-      <c r="B332" s="1">
+      <c r="B332">
         <v>8904223818850</v>
       </c>
       <c r="C332" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>113</v>
       </c>
-      <c r="B333" s="1">
+      <c r="B333">
         <v>8904223819031</v>
       </c>
       <c r="C333" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>113</v>
       </c>
-      <c r="B334" s="1">
+      <c r="B334">
         <v>8904223818430</v>
       </c>
       <c r="C334" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>113</v>
       </c>
-      <c r="B335" s="1">
+      <c r="B335">
         <v>8904223818850</v>
       </c>
       <c r="C335" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>113</v>
       </c>
-      <c r="B336" s="1">
+      <c r="B336">
         <v>8904223819512</v>
       </c>
       <c r="C336" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>113</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B337">
         <v>8904223819468</v>
       </c>
       <c r="C337" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>114</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B338">
         <v>8904223818706</v>
       </c>
       <c r="C338" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>114</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B339">
         <v>8904223818942</v>
       </c>
       <c r="C339" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>114</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B340">
         <v>8904223818850</v>
       </c>
       <c r="C340" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>115</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B341">
         <v>8904223819468</v>
       </c>
       <c r="C341" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>116</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B342">
         <v>8904223818706</v>
       </c>
       <c r="C342" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>116</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B343">
         <v>8904223818942</v>
       </c>
       <c r="C343" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>116</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B344">
         <v>8904223818850</v>
       </c>
       <c r="C344" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>117</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B345">
         <v>8904223818669</v>
       </c>
       <c r="C345" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>117</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B346">
         <v>8904223818683</v>
       </c>
       <c r="C346" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>117</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B347">
         <v>8904223818935</v>
       </c>
       <c r="C347" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>117</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B348">
         <v>8904223818713</v>
       </c>
       <c r="C348" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>117</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B349">
         <v>8904223819024</v>
       </c>
       <c r="C349" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>117</v>
       </c>
-      <c r="B350" s="1">
+      <c r="B350">
         <v>8904223819123</v>
       </c>
       <c r="C350" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>118</v>
       </c>
-      <c r="B351" s="1">
+      <c r="B351">
         <v>8904223818706</v>
       </c>
       <c r="C351" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>118</v>
       </c>
-      <c r="B352" s="1">
+      <c r="B352">
         <v>8904223818942</v>
       </c>
       <c r="C352" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>118</v>
       </c>
-      <c r="B353" s="1">
+      <c r="B353">
         <v>8904223818850</v>
       </c>
       <c r="C353" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>119</v>
       </c>
-      <c r="B354" s="1">
+      <c r="B354">
         <v>8904223818591</v>
       </c>
       <c r="C354" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>119</v>
       </c>
-      <c r="B355" s="1">
+      <c r="B355">
         <v>8904223816214</v>
       </c>
       <c r="C355" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>119</v>
       </c>
-      <c r="B356" s="1">
+      <c r="B356">
         <v>8904223819024</v>
       </c>
       <c r="C356" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>119</v>
       </c>
-      <c r="B357" s="1">
+      <c r="B357">
         <v>8904223819253</v>
       </c>
       <c r="C357" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>119</v>
       </c>
-      <c r="B358" s="1">
+      <c r="B358">
         <v>8904223815804</v>
       </c>
       <c r="C358" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>119</v>
       </c>
-      <c r="B359" s="1">
+      <c r="B359">
         <v>8904223818577</v>
       </c>
       <c r="C359" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>120</v>
       </c>
-      <c r="B360" s="1">
+      <c r="B360">
         <v>8904223818706</v>
       </c>
       <c r="C360" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>121</v>
       </c>
-      <c r="B361" s="1">
+      <c r="B361">
         <v>8904223818706</v>
       </c>
       <c r="C361" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>121</v>
       </c>
-      <c r="B362" s="1">
+      <c r="B362">
         <v>8904223818942</v>
       </c>
       <c r="C362" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>121</v>
       </c>
-      <c r="B363" s="1">
+      <c r="B363">
         <v>8904223818850</v>
       </c>
       <c r="C363" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>122</v>
       </c>
-      <c r="B364" s="1">
+      <c r="B364">
         <v>8904223818706</v>
       </c>
       <c r="C364" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>122</v>
       </c>
-      <c r="B365" s="1">
+      <c r="B365">
         <v>8904223818942</v>
       </c>
       <c r="C365" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>122</v>
       </c>
-      <c r="B366" s="1">
+      <c r="B366">
         <v>8904223818850</v>
       </c>
       <c r="C366" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>122</v>
       </c>
-      <c r="B367" s="1">
+      <c r="B367">
         <v>8904223818706</v>
       </c>
       <c r="C367" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>122</v>
       </c>
-      <c r="B368" s="1">
+      <c r="B368">
         <v>8904223818942</v>
       </c>
       <c r="C368" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>122</v>
       </c>
-      <c r="B369" s="1">
+      <c r="B369">
         <v>8904223818850</v>
       </c>
       <c r="C369" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>122</v>
       </c>
-      <c r="B370" s="1">
+      <c r="B370">
         <v>8904223818683</v>
       </c>
       <c r="C370" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>123</v>
       </c>
-      <c r="B371" s="1">
+      <c r="B371">
         <v>8904223819284</v>
       </c>
       <c r="C371" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>123</v>
       </c>
-      <c r="B372" s="1">
+      <c r="B372">
         <v>8904223818478</v>
       </c>
       <c r="C372" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>124</v>
       </c>
-      <c r="B373" s="1">
+      <c r="B373">
         <v>8904223818706</v>
       </c>
       <c r="C373" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>124</v>
       </c>
-      <c r="B374" s="1">
+      <c r="B374">
         <v>8904223818942</v>
       </c>
       <c r="C374" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>124</v>
       </c>
-      <c r="B375" s="1">
+      <c r="B375">
         <v>8904223818850</v>
       </c>
       <c r="C375" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>125</v>
       </c>
-      <c r="B376" s="1">
+      <c r="B376">
         <v>8904223819437</v>
       </c>
       <c r="C376" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>125</v>
       </c>
-      <c r="B377" s="1">
+      <c r="B377">
         <v>8904223819352</v>
       </c>
       <c r="C377" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>125</v>
       </c>
-      <c r="B378" s="1">
+      <c r="B378">
         <v>8904223819024</v>
       </c>
       <c r="C378" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>125</v>
       </c>
-      <c r="B379" s="1">
+      <c r="B379">
         <v>8904223818874</v>
       </c>
       <c r="C379" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>126</v>
       </c>
-      <c r="B380" s="1">
+      <c r="B380">
         <v>8904223818706</v>
       </c>
       <c r="C380" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>126</v>
       </c>
-      <c r="B381" s="1">
+      <c r="B381">
         <v>8904223818942</v>
       </c>
       <c r="C381" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>126</v>
       </c>
-      <c r="B382" s="1">
+      <c r="B382">
         <v>8904223818850</v>
       </c>
       <c r="C382" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>127</v>
       </c>
-      <c r="B383" s="1">
+      <c r="B383">
         <v>8904223818706</v>
       </c>
       <c r="C383" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>127</v>
       </c>
-      <c r="B384" s="1">
+      <c r="B384">
         <v>8904223818942</v>
       </c>
       <c r="C384" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>127</v>
       </c>
-      <c r="B385" s="1">
+      <c r="B385">
         <v>8904223818850</v>
       </c>
       <c r="C385" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>128</v>
       </c>
-      <c r="B386" s="1">
+      <c r="B386">
         <v>8904223819017</v>
       </c>
       <c r="C386" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>128</v>
       </c>
-      <c r="B387" s="1">
+      <c r="B387">
         <v>8904223818706</v>
       </c>
       <c r="C387" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>128</v>
       </c>
-      <c r="B388" s="1">
+      <c r="B388">
         <v>8904223818942</v>
       </c>
       <c r="C388" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>128</v>
       </c>
-      <c r="B389" s="1">
+      <c r="B389">
         <v>8904223818850</v>
       </c>
       <c r="C389" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>129</v>
       </c>
-      <c r="B390" s="1">
+      <c r="B390">
         <v>8904223819161</v>
       </c>
       <c r="C390" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>129</v>
       </c>
-      <c r="B391" s="1">
+      <c r="B391">
         <v>8904223819260</v>
       </c>
       <c r="C391" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>130</v>
       </c>
-      <c r="B392" s="1">
+      <c r="B392">
         <v>8904223819161</v>
       </c>
       <c r="C392" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>130</v>
       </c>
-      <c r="B393" s="1">
+      <c r="B393">
         <v>8904223819260</v>
       </c>
       <c r="C393" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>131</v>
       </c>
-      <c r="B394" s="1">
+      <c r="B394">
         <v>8904223818645</v>
       </c>
       <c r="C394" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>131</v>
       </c>
-      <c r="B395" s="1">
+      <c r="B395">
         <v>8904223819147</v>
       </c>
       <c r="C395" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>132</v>
       </c>
-      <c r="B396" s="1">
+      <c r="B396">
         <v>8904223818706</v>
       </c>
       <c r="C396" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>132</v>
       </c>
-      <c r="B397" s="1">
+      <c r="B397">
         <v>8904223818942</v>
       </c>
       <c r="C397" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>132</v>
       </c>
-      <c r="B398" s="1">
+      <c r="B398">
         <v>8904223818850</v>
       </c>
       <c r="C398" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>133</v>
       </c>
-      <c r="B399" s="1">
+      <c r="B399">
         <v>8904223818850</v>
       </c>
       <c r="C399" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>134</v>
       </c>
-      <c r="B400" s="1">
+      <c r="B400">
         <v>8904223816214</v>
       </c>
       <c r="C400" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>134</v>
       </c>
-      <c r="B401" s="1">
+      <c r="B401">
         <v>8904223818874</v>
       </c>
       <c r="C401" t="s">
